--- a/system_development/V0.3/Wireless Communication Bill of Materials.xlsx
+++ b/system_development/V0.3/Wireless Communication Bill of Materials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandasark/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandasark/Documents/GitHub/UAV-Deployable-Stage-Height-Sensor/Sensor-Package-Access-Hub/system_development/V0.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D04CA076-390D-EC44-8D77-849E23CFC3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA140A2-21C1-6F43-8C92-A11BC9541919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="620" windowWidth="24480" windowHeight="15820" xr2:uid="{E221C006-3E44-8346-BC09-B1020C058F3D}"/>
   </bookViews>
@@ -35,12 +35,122 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Individual Cost</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Vendor 1</t>
+  </si>
+  <si>
+    <t>Vendor 2</t>
+  </si>
+  <si>
+    <t>Vendor 3</t>
+  </si>
+  <si>
+    <t>Vendor 4</t>
+  </si>
+  <si>
+    <t>Vendor 5</t>
+  </si>
+  <si>
+    <t>Vendor 6</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Raspbery Pi</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/raspberry-pi/RASPBERRY-PI-4B-2GB/10258782?src=raspberrypi</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Raspberry-Pi/SC01939?qs=T%252BzbugeAwjieYVS2HrrK%2FQ%3D%3D&amp;src=raspberrypi</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/4295</t>
+  </si>
+  <si>
+    <t>https://www.pishop.us/product/raspberry-pi-4-model-b-2gb/?src=raspberrypi</t>
+  </si>
+  <si>
+    <t>https://www.canakit.com/raspberry-pi-4-2gb.html?cid=usd&amp;src=raspberrypi</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Arduino Nano</t>
+  </si>
+  <si>
+    <t>https://store-usa.arduino.cc/products/arduino-nano?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=US-Pmax&amp;gad_source=1&amp;gclid=CjwKCAjw7pO_BhAlEiwA4pMQvGgjSAL_aiPDuQtjDtxsbhZPY6NtgwMyrIq1obT8kDad0uOfvd-_6xoCrvUQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/arduino/A000005/2638989?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=20243136172&amp;gbraid=0AAAAADrbLli4_Ap0H678W2amsXvkFFD8z&amp;gclid=EAIaIQobChMI7K31g6HsjQMVtUP_AR30cCLzEAQYBCABEgJLw_D_BwE</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/254630577493?chn=ps&amp;mkevt=1&amp;mkcid=28&amp;google_free_listing_action=view_item&amp;srsltid=AfmBOorV61PA8LrmcVCLmkRxgli-ic749EmEj9uG3olJqtVqK8C26RwUy3g&amp;gQT=2</t>
+  </si>
+  <si>
+    <t>NRF24L01+</t>
+  </si>
+  <si>
+    <t>NRF24L01+ 2.4GHz Wireless RF Transceiver Module</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Makerfire-Arduino-NRF24L01-Wireless-Transceiver/dp/B00O9O868G/ref=asc_df_B00O9O868G?mcid=dab308f0de3430dfa5c9f8399ca22b35&amp;hvocijid=9184541888213339040-B00O9O868G-&amp;hvexpln=73&amp;tag=hyprod-20&amp;linkCode=df0&amp;hvadid=721245378154&amp;hvpos=&amp;hvnetw=g&amp;hvrand=9184541888213339040&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9198699&amp;hvtargid=pla-2281435177578&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/ai-thinker/NF-01-S/16688873?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=20228387720&amp;gbraid=0AAAAADrbLlhsJzz1oN02_raHPEOj6KUUd&amp;gclid=EAIaIQobChMI3MDDyaTsjQMVB0f_AR2LmQ9qEAQYASABEgLeCvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/185777140664?_trkparms=amclksrc%3DITM%26aid%3D1110006%26algo%3DHOMESPLICE.SIM%26ao%3D1%26asc%3D287247%26meid%3D93c1d507459749bc824a3ce37313f90d%26pid%3D101875%26rk%3D3%26rkt%3D4%26sd%3D226422738360%26itm%3D185777140664%26pmt%3D1%26noa%3D0%26pg%3D2332490%26algv%3DSimVIDwebV3WithCPCExpansionEmbeddingSearchQuerySemanticBroadMatchSingularityRecallReplaceKnnV4WithVectorDbNsOptHotPlRecallCIICentroidCoviewCPCAuto%26brand%3DUnbranded&amp;_trksid=p2332490.c101875.m1851&amp;itmprp=cksum%3A18577714066493c1d507459749bc824a3ce37313f90d%7Cenc%3AAQAKAAABgG96wQ16jds4VFcrhy1F3d4mbwZUJI9Fs%252BgdXYAHIzlX2e3YaNh7x%252BEnKA3G%252BCqSl1Xn4McfcWFK1GytmS2qxJ87mtE8Gm3iR1Ja4WBwh0hNHJrJx3Ki5mp04ow4CO7lP%252BooCybZDDU%252BbbSwmg7CbTin%252BBzBzbCYVnbjvyQAHu6--HI4MB7SvJl5IJqlyvomgoLMlgT6qAJzX0SANJhty2f5YzLv2iQRrcjkpB9yWvuQT%252FD11f5slI2e7QWDMHGTFtcZ50wqMvw%252BJ2RmlUxIXEvTh0LqkZAB7va6mk9vTJtc7Drox1ThtDB19WG5bIW2fHfgLY1uzbmW3a%252Fnm3Xq5q2ZFEfZuha4INRc5aLYqwnMqROltXNjasF%252BOJ2XE8eHi%252FOvOstYWuF0B9daNxq2df0CZ%252FJRsrEsp4L2Uu1GspH%252BFMbSl%252BZrFIdsnBOQo%252F2rJWZSFwMfO%252FC%252FTJvfUez7OsduubS7DzjHJkVpk4KK0CMvuoyIlnVJq3LxYcq7By8laA%253D%253D%7Campid%3APL_CLK%7Cclp%3A2332490&amp;itmmeta=01JXJF02RJ2SD81DKBZE32WGPJ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +173,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,12 +517,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C459ABE-EF25-E24D-9B3D-6F13EC46FA2C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="62.33203125" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" customWidth="1"/>
+    <col min="8" max="8" width="55" customWidth="1"/>
+    <col min="9" max="9" width="43.33203125" customWidth="1"/>
+    <col min="10" max="10" width="60.6640625" customWidth="1"/>
+    <col min="11" max="11" width="57.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{0578B067-9C12-5D44-A451-D37843A905A9}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{5B2F80A0-4699-A94B-B95A-520A1EB68A7F}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{487164B2-2D40-F640-A90B-E468A1C08218}"/>
+    <hyperlink ref="F4" r:id="rId4" display="https://www.amazon.com/Makerfire-Arduino-NRF24L01-Wireless-Transceiver/dp/B00O9O868G/ref=asc_df_B00O9O868G?mcid=dab308f0de3430dfa5c9f8399ca22b35&amp;hvocijid=9184541888213339040-B00O9O868G-&amp;hvexpln=73&amp;tag=hyprod-20&amp;linkCode=df0&amp;hvadid=721245378154&amp;hvpos=&amp;hvnetw=g&amp;hvrand=9184541888213339040&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9198699&amp;hvtargid=pla-2281435177578&amp;psc=1" xr:uid="{24DFFAB3-F4F1-104E-BF4D-7E3BE0CEDFAB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>